--- a/scripts/Monitoramento/inputs/0 - Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/inputs/0 - Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_601BD2917D0D89E5E9ECF775C8A4B195BC73B6B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2353F75-2FF7-4303-92BC-8495194BE775}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_000CB60ED8FBB7DEC36EF68DA4A1BAD91CB3007A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB895D1D-4F32-4AE5-B74B-67A614D14600}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -906,10 +906,6 @@
     <xf numFmtId="0" fontId="13" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,13 +921,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,6 +978,17 @@
     <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2499,7 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2552,353 +2552,353 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="46"/>
+      <c r="AG1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="46"/>
+      <c r="AJ1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="20"/>
+      <c r="AK1" s="46"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <f ca="1">COUNTIF(AE2:AE47,"Enviado")</f>
         <v>35</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <f ca="1">B2/SUM($B2,$D2,$F2)</f>
         <v>0.76086956521739135</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <f ca="1">COUNTIF(AE2:AE47,"Atrasado")</f>
         <v>6</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <f ca="1">D2/SUM($B2,$D2,$F2)</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <f ca="1">COUNTIF(AE2:AE47,"Sem Técnico")</f>
         <v>5</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <f ca="1">F2/SUM($B2,$D2,$F2)</f>
         <v>0.10869565217391304</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <f ca="1">COUNTIF(AE2:AE47,"Duplicado")</f>
         <v>0</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <f ca="1">H2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="21">
         <f ca="1">SUM(B2,D2,F2,H2)</f>
         <v>46</v>
       </c>
-      <c r="AD2" s="24" t="str">
+      <c r="AD2" s="22" t="str">
         <f t="array" aca="1" ref="AD2:AD48" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 1 - Município'!B2:B70"))</f>
         <v>Alto Paraíso</v>
       </c>
-      <c r="AE2" s="24" t="str">
+      <c r="AE2" s="22" t="str">
         <f ca="1">VLOOKUP(AD2,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG2" s="24" t="str">
+      <c r="AG2" s="22" t="str">
         <f t="array" aca="1" ref="AG2:AG48" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 2 - UVR'!B2:B70"))</f>
         <v>Alto Paraíso</v>
       </c>
-      <c r="AH2" s="24" t="str">
+      <c r="AH2" s="22" t="str">
         <f ca="1">VLOOKUP(AG2,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="AJ2" s="24" t="str">
+      <c r="AJ2" s="22" t="str">
         <f t="array" aca="1" ref="AJ2:AJ48" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 3 - Empreendimento'!B2:B70"))</f>
         <v>Alto Paraíso</v>
       </c>
-      <c r="AK2" s="24" t="str">
+      <c r="AK2" s="22" t="str">
         <f ca="1">VLOOKUP(AJ2,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Outras Ocorrências</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <f ca="1">COUNTIF(AH2:AH47,"Enviado")</f>
         <v>26</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <f ca="1">B3/SUM($B3,$D3,$F3)</f>
         <v>0.60465116279069764</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <f ca="1">COUNTIF(AH2:AH47,"Atrasado")</f>
         <v>12</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <f ca="1">D3/SUM($B3,$D3,$F3)</f>
         <v>0.27906976744186046</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f ca="1">COUNTIF(AH2:AH47,"Sem Técnico")</f>
         <v>5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <f ca="1">F3/SUM($B3,$D3,$F3)</f>
         <v>0.11627906976744186</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <f ca="1">COUNTIF(AH2:AH47,"Duplicado")</f>
         <v>0</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <f ca="1">H3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <f ca="1">SUM(B3,D3,F3,H3)</f>
         <v>43</v>
       </c>
-      <c r="AD3" s="24" t="str">
+      <c r="AD3" s="22" t="str">
         <f ca="1"/>
         <v>Alto Piquiri</v>
       </c>
-      <c r="AE3" s="24" t="str">
+      <c r="AE3" s="22" t="str">
         <f ca="1">VLOOKUP(AD3,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG3" s="24" t="str">
+      <c r="AG3" s="22" t="str">
         <f ca="1"/>
         <v>Alto Piquiri</v>
       </c>
-      <c r="AH3" s="24" t="str">
+      <c r="AH3" s="22" t="str">
         <f ca="1">VLOOKUP(AG3,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ3" s="24" t="str">
+      <c r="AJ3" s="22" t="str">
         <f ca="1"/>
         <v>Alto Piquiri</v>
       </c>
-      <c r="AK3" s="24" t="str">
+      <c r="AK3" s="22" t="str">
         <f ca="1">VLOOKUP(AJ3,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <f ca="1">COUNTIF(AK2:AK47,"Enviado")</f>
         <v>25</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <f ca="1">B4/SUM($B4,$D4,$F4)</f>
         <v>0.6097560975609756</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <f ca="1">COUNTIF(AK2:AK47,"Atrasado")</f>
         <v>11</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <f ca="1">D4/SUM($B4,$D4,$F4)</f>
         <v>0.26829268292682928</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f ca="1">COUNTIF(AK2:AK47,"Sem Técnico")</f>
         <v>5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <f ca="1">F4/SUM($B4,$D4,$F4)</f>
         <v>0.12195121951219512</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <f ca="1">COUNTIF(AK2:AK47,"Duplicado")</f>
         <v>3</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <f ca="1">H4/SUM($B4,$D4,$F4,$H4)</f>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <f ca="1">SUM(B4,D4,F4,H4)</f>
         <v>44</v>
       </c>
-      <c r="AD4" s="24" t="str">
+      <c r="AD4" s="22" t="str">
         <f ca="1"/>
         <v>Bela Vista da Caroba</v>
       </c>
-      <c r="AE4" s="24" t="str">
+      <c r="AE4" s="22" t="str">
         <f ca="1">VLOOKUP(AD4,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AG4" s="24" t="str">
+      <c r="AG4" s="22" t="str">
         <f ca="1"/>
         <v>Bela Vista da Caroba</v>
       </c>
-      <c r="AH4" s="24" t="str">
+      <c r="AH4" s="22" t="str">
         <f ca="1">VLOOKUP(AG4,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ4" s="24" t="str">
+      <c r="AJ4" s="22" t="str">
         <f ca="1"/>
         <v>Bela Vista da Caroba</v>
       </c>
-      <c r="AK4" s="24" t="str">
+      <c r="AK4" s="22" t="str">
         <f ca="1">VLOOKUP(AJ4,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <f ca="1">SUM(B2:B4)</f>
         <v>86</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f ca="1">B5/SUM($B5,$D5,$F5)</f>
         <v>0.66153846153846152</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <f ca="1">SUM(D2:D4)</f>
         <v>29</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <f ca="1">D5/SUM($B5,$D5,$F5)</f>
         <v>0.22307692307692309</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <f ca="1">SUM(F2:F4)</f>
         <v>15</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f ca="1">F5/SUM($B5,$D5,$F5)</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <f ca="1">SUM(H2:H4)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <f ca="1">H5/SUM($B5,$D5,$F5,$H5)</f>
         <v>2.2556390977443608E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <f ca="1">SUM(B5,D5,F5,H5)</f>
         <v>133</v>
       </c>
-      <c r="AD5" s="24" t="str">
+      <c r="AD5" s="22" t="str">
         <f ca="1"/>
         <v>Cafezal do Sul</v>
       </c>
-      <c r="AE5" s="24" t="str">
+      <c r="AE5" s="22" t="str">
         <f ca="1">VLOOKUP(AD5,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG5" s="24" t="str">
+      <c r="AG5" s="22" t="str">
         <f ca="1"/>
         <v>Cafezal do Sul</v>
       </c>
-      <c r="AH5" s="24" t="str">
+      <c r="AH5" s="22" t="str">
         <f ca="1">VLOOKUP(AG5,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ5" s="24" t="str">
+      <c r="AJ5" s="22" t="str">
         <f ca="1"/>
         <v>Cafezal do Sul</v>
       </c>
-      <c r="AK5" s="24" t="str">
+      <c r="AK5" s="22" t="str">
         <f ca="1">VLOOKUP(AJ5,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="AD6" s="24" t="str">
+      <c r="AD6" s="22" t="str">
         <f ca="1"/>
         <v>Cruzeiro do Oeste</v>
       </c>
-      <c r="AE6" s="24" t="str">
+      <c r="AE6" s="22" t="str">
         <f ca="1">VLOOKUP(AD6,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG6" s="24" t="str">
+      <c r="AG6" s="22" t="str">
         <f ca="1"/>
         <v>Cruzeiro do Oeste</v>
       </c>
-      <c r="AH6" s="24" t="str">
+      <c r="AH6" s="22" t="str">
         <f ca="1">VLOOKUP(AG6,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ6" s="24" t="str">
+      <c r="AJ6" s="22" t="str">
         <f ca="1"/>
         <v>Cruzeiro do Oeste</v>
       </c>
-      <c r="AK6" s="24" t="str">
+      <c r="AK6" s="22" t="str">
         <f ca="1">VLOOKUP(AJ6,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="AD7" s="24" t="str">
+      <c r="AD7" s="22" t="str">
         <f ca="1"/>
         <v>Diamante do Norte</v>
       </c>
-      <c r="AE7" s="24" t="str">
+      <c r="AE7" s="22" t="str">
         <f ca="1">VLOOKUP(AD7,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG7" s="24" t="str">
+      <c r="AG7" s="22" t="str">
         <f ca="1"/>
         <v>Diamante do Norte</v>
       </c>
-      <c r="AH7" s="24" t="str">
+      <c r="AH7" s="22" t="str">
         <f ca="1">VLOOKUP(AG7,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ7" s="24" t="str">
+      <c r="AJ7" s="22" t="str">
         <f ca="1"/>
         <v>Diamante do Norte</v>
       </c>
-      <c r="AK7" s="24" t="str">
+      <c r="AK7" s="22" t="str">
         <f ca="1">VLOOKUP(AJ7,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="AD8" s="24" t="str">
+      <c r="AD8" s="22" t="str">
         <f ca="1"/>
         <v>Douradina</v>
       </c>
-      <c r="AE8" s="24" t="str">
+      <c r="AE8" s="22" t="str">
         <f ca="1">VLOOKUP(AD8,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG8" s="24" t="str">
+      <c r="AG8" s="22" t="str">
         <f ca="1"/>
         <v>Douradina</v>
       </c>
-      <c r="AH8" s="24" t="str">
+      <c r="AH8" s="22" t="str">
         <f ca="1">VLOOKUP(AG8,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ8" s="24" t="str">
+      <c r="AJ8" s="22" t="str">
         <f ca="1"/>
         <v>Douradina</v>
       </c>
-      <c r="AK8" s="24" t="str">
+      <c r="AK8" s="22" t="str">
         <f ca="1">VLOOKUP(AJ8,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2913,27 +2913,27 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD9" s="24" t="str">
+      <c r="AD9" s="22" t="str">
         <f ca="1"/>
         <v>Esperança Nova</v>
       </c>
-      <c r="AE9" s="24" t="str">
+      <c r="AE9" s="22" t="str">
         <f ca="1">VLOOKUP(AD9,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG9" s="24" t="str">
+      <c r="AG9" s="22" t="str">
         <f ca="1"/>
         <v>Esperança Nova</v>
       </c>
-      <c r="AH9" s="24" t="str">
+      <c r="AH9" s="22" t="str">
         <f ca="1">VLOOKUP(AG9,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ9" s="24" t="str">
+      <c r="AJ9" s="22" t="str">
         <f ca="1"/>
         <v>Esperança Nova</v>
       </c>
-      <c r="AK9" s="24" t="str">
+      <c r="AK9" s="22" t="str">
         <f ca="1">VLOOKUP(AJ9,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
@@ -2942,35 +2942,35 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="AD10" s="24" t="str">
+      <c r="AD10" s="22" t="str">
         <f ca="1"/>
         <v>Icaraíma</v>
       </c>
-      <c r="AE10" s="24" t="str">
+      <c r="AE10" s="22" t="str">
         <f ca="1">VLOOKUP(AD10,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG10" s="24" t="str">
+      <c r="AG10" s="22" t="str">
         <f ca="1"/>
         <v>Icaraíma</v>
       </c>
-      <c r="AH10" s="24" t="str">
+      <c r="AH10" s="22" t="str">
         <f ca="1">VLOOKUP(AG10,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ10" s="24" t="str">
+      <c r="AJ10" s="22" t="str">
         <f ca="1"/>
         <v>Icaraíma</v>
       </c>
-      <c r="AK10" s="24" t="str">
+      <c r="AK10" s="22" t="str">
         <f ca="1">VLOOKUP(AJ10,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2979,35 +2979,35 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="24" t="str">
+      <c r="AD11" s="22" t="str">
         <f ca="1"/>
         <v>Iporã</v>
       </c>
-      <c r="AE11" s="24" t="str">
+      <c r="AE11" s="22" t="str">
         <f ca="1">VLOOKUP(AD11,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG11" s="24" t="str">
+      <c r="AG11" s="22" t="str">
         <f ca="1"/>
         <v>Iporã</v>
       </c>
-      <c r="AH11" s="24" t="str">
+      <c r="AH11" s="22" t="str">
         <f ca="1">VLOOKUP(AG11,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ11" s="24" t="str">
+      <c r="AJ11" s="22" t="str">
         <f ca="1"/>
         <v>Iporã</v>
       </c>
-      <c r="AK11" s="24" t="str">
+      <c r="AK11" s="22" t="str">
         <f ca="1">VLOOKUP(AJ11,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3016,134 +3016,134 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
         <v>2</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="AD12" s="24" t="str">
+      <c r="AD12" s="22" t="str">
         <f ca="1"/>
         <v>Ivaté</v>
       </c>
-      <c r="AE12" s="24" t="str">
+      <c r="AE12" s="22" t="str">
         <f ca="1">VLOOKUP(AD12,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG12" s="24" t="str">
+      <c r="AG12" s="22" t="str">
         <f ca="1"/>
         <v>Ivaté</v>
       </c>
-      <c r="AH12" s="24" t="str">
+      <c r="AH12" s="22" t="str">
         <f ca="1">VLOOKUP(AG12,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ12" s="24" t="str">
+      <c r="AJ12" s="22" t="str">
         <f ca="1"/>
         <v>Ivaté</v>
       </c>
-      <c r="AK12" s="24" t="str">
+      <c r="AK12" s="22" t="str">
         <f ca="1">VLOOKUP(AJ12,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="AD13" s="24" t="str">
+      <c r="AD13" s="22" t="str">
         <f ca="1"/>
         <v>Itauna do Sul</v>
       </c>
-      <c r="AE13" s="24" t="str">
+      <c r="AE13" s="22" t="str">
         <f ca="1">VLOOKUP(AD13,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG13" s="24" t="str">
+      <c r="AG13" s="22" t="str">
         <f ca="1"/>
         <v>Itauna do Sul</v>
       </c>
-      <c r="AH13" s="24" t="str">
+      <c r="AH13" s="22" t="str">
         <f ca="1">VLOOKUP(AG13,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ13" s="24" t="str">
+      <c r="AJ13" s="22" t="str">
         <f ca="1"/>
         <v>Itauna do Sul</v>
       </c>
-      <c r="AK13" s="24" t="str">
+      <c r="AK13" s="22" t="str">
         <f ca="1">VLOOKUP(AJ13,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="AD14" s="24" t="str">
+      <c r="AD14" s="22" t="str">
         <f ca="1"/>
         <v>Loanda</v>
       </c>
-      <c r="AE14" s="24" t="str">
+      <c r="AE14" s="22" t="str">
         <f ca="1">VLOOKUP(AD14,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG14" s="24" t="str">
+      <c r="AG14" s="22" t="str">
         <f ca="1"/>
         <v>Loanda</v>
       </c>
-      <c r="AH14" s="24" t="str">
+      <c r="AH14" s="22" t="str">
         <f ca="1">VLOOKUP(AG14,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ14" s="24" t="str">
+      <c r="AJ14" s="22" t="str">
         <f ca="1"/>
         <v>Loanda</v>
       </c>
-      <c r="AK14" s="24" t="str">
+      <c r="AK14" s="22" t="str">
         <f ca="1">VLOOKUP(AJ14,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="AD15" s="24" t="str">
+      <c r="G15" s="46"/>
+      <c r="AD15" s="22" t="str">
         <f ca="1"/>
         <v>Maria Helena</v>
       </c>
-      <c r="AE15" s="24" t="str">
+      <c r="AE15" s="22" t="str">
         <f ca="1">VLOOKUP(AD15,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG15" s="24" t="str">
+      <c r="AG15" s="22" t="str">
         <f ca="1"/>
         <v>Maria Helena</v>
       </c>
-      <c r="AH15" s="24" t="str">
+      <c r="AH15" s="22" t="str">
         <f ca="1">VLOOKUP(AG15,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ15" s="24" t="str">
+      <c r="AJ15" s="22" t="str">
         <f ca="1"/>
         <v>Maria Helena</v>
       </c>
-      <c r="AK15" s="24" t="str">
+      <c r="AK15" s="22" t="str">
         <f ca="1">VLOOKUP(AJ15,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -3162,27 +3162,27 @@
       <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AD16" s="24" t="str">
+      <c r="AD16" s="22" t="str">
         <f ca="1"/>
         <v>Marilena</v>
       </c>
-      <c r="AE16" s="24" t="str">
+      <c r="AE16" s="22" t="str">
         <f ca="1">VLOOKUP(AD16,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG16" s="24" t="str">
+      <c r="AG16" s="22" t="str">
         <f ca="1"/>
         <v>Marilena</v>
       </c>
-      <c r="AH16" s="24" t="str">
+      <c r="AH16" s="22" t="str">
         <f ca="1">VLOOKUP(AG16,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ16" s="24" t="str">
+      <c r="AJ16" s="22" t="str">
         <f ca="1"/>
         <v>Marilena</v>
       </c>
-      <c r="AK16" s="24" t="str">
+      <c r="AK16" s="22" t="str">
         <f ca="1">VLOOKUP(AJ16,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
@@ -3191,51 +3191,51 @@
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <f ca="1">B17/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f ca="1">D17/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <f ca="1">F17/B4</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="24" t="str">
+      <c r="AD17" s="22" t="str">
         <f ca="1"/>
         <v>Mariluz</v>
       </c>
-      <c r="AE17" s="24" t="str">
+      <c r="AE17" s="22" t="str">
         <f ca="1">VLOOKUP(AD17,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG17" s="24" t="str">
+      <c r="AG17" s="22" t="str">
         <f ca="1"/>
         <v>Mariluz</v>
       </c>
-      <c r="AH17" s="24" t="str">
+      <c r="AH17" s="22" t="str">
         <f ca="1">VLOOKUP(AG17,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ17" s="24" t="str">
+      <c r="AJ17" s="22" t="str">
         <f ca="1"/>
         <v>Mariluz</v>
       </c>
-      <c r="AK17" s="24" t="str">
+      <c r="AK17" s="22" t="str">
         <f ca="1">VLOOKUP(AJ17,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3244,210 +3244,210 @@
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <f ca="1">B18/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <f ca="1">F18/B5</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="24" t="str">
+      <c r="AD18" s="22" t="str">
         <f ca="1"/>
         <v>Nova Londrina</v>
       </c>
-      <c r="AE18" s="24" t="str">
+      <c r="AE18" s="22" t="str">
         <f ca="1">VLOOKUP(AD18,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG18" s="24" t="str">
+      <c r="AG18" s="22" t="str">
         <f ca="1"/>
         <v>Nova Londrina</v>
       </c>
-      <c r="AH18" s="24" t="str">
+      <c r="AH18" s="22" t="str">
         <f ca="1">VLOOKUP(AG18,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ18" s="24" t="str">
+      <c r="AJ18" s="22" t="str">
         <f ca="1"/>
         <v>Nova Londrina</v>
       </c>
-      <c r="AK18" s="24" t="str">
+      <c r="AK18" s="22" t="str">
         <f ca="1">VLOOKUP(AJ18,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <f ca="1">B19/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f ca="1">D19/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <f ca="1">F19/B5</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="AD19" s="24" t="str">
+      <c r="AD19" s="22" t="str">
         <f ca="1"/>
         <v>Nova Olimpia</v>
       </c>
-      <c r="AE19" s="24" t="str">
+      <c r="AE19" s="22" t="str">
         <f ca="1">VLOOKUP(AD19,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG19" s="24" t="str">
+      <c r="AG19" s="22" t="str">
         <f ca="1"/>
         <v>Nova Olimpia</v>
       </c>
-      <c r="AH19" s="24" t="str">
+      <c r="AH19" s="22" t="str">
         <f ca="1">VLOOKUP(AG19,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ19" s="24" t="str">
+      <c r="AJ19" s="22" t="str">
         <f ca="1"/>
         <v>Nova Olimpia</v>
       </c>
-      <c r="AK19" s="24" t="str">
+      <c r="AK19" s="22" t="str">
         <f ca="1">VLOOKUP(AJ19,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <f ca="1">B20/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="22">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f ca="1">D20/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="23">
         <f ca="1">F20/B5</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="24" t="str">
+      <c r="AD20" s="22" t="str">
         <f ca="1"/>
         <v>Perobal</v>
       </c>
-      <c r="AE20" s="24" t="str">
+      <c r="AE20" s="22" t="str">
         <f ca="1">VLOOKUP(AD20,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG20" s="24" t="str">
+      <c r="AG20" s="22" t="str">
         <f ca="1"/>
         <v>Perobal</v>
       </c>
-      <c r="AH20" s="24" t="str">
+      <c r="AH20" s="22" t="str">
         <f ca="1">VLOOKUP(AG20,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="AJ20" s="24" t="str">
+      <c r="AJ20" s="22" t="str">
         <f ca="1"/>
         <v>Perobal</v>
       </c>
-      <c r="AK20" s="24" t="str">
+      <c r="AK20" s="22" t="str">
         <f ca="1">VLOOKUP(AJ20,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Outras Ocorrências</v>
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <f ca="1">B21/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f ca="1">D21/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <f ca="1">F21/B5</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="24" t="str">
+      <c r="AD21" s="22" t="str">
         <f ca="1"/>
         <v>Pérola</v>
       </c>
-      <c r="AE21" s="24" t="str">
+      <c r="AE21" s="22" t="str">
         <f ca="1">VLOOKUP(AD21,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG21" s="24" t="str">
+      <c r="AG21" s="22" t="str">
         <f ca="1"/>
         <v>Pérola</v>
       </c>
-      <c r="AH21" s="24" t="str">
+      <c r="AH21" s="22" t="str">
         <f ca="1">VLOOKUP(AG21,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ21" s="24" t="str">
+      <c r="AJ21" s="22" t="str">
         <f ca="1"/>
         <v>Pérola</v>
       </c>
-      <c r="AK21" s="24" t="str">
+      <c r="AK21" s="22" t="str">
         <f ca="1">VLOOKUP(AJ21,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3456,701 +3456,701 @@
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="27">
         <f ca="1">SUM(B17:B21)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <f ca="1">SUM(C17:C21)</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <f ca="1">SUM(D17:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="28">
         <f ca="1">SUM(E17:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="27">
         <f ca="1">SUM(F17:F21)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="28">
         <f ca="1">SUM(G17:G21)</f>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="AD22" s="24" t="str">
+      <c r="AD22" s="22" t="str">
         <f ca="1"/>
         <v>Perola d'Oeste</v>
       </c>
-      <c r="AE22" s="24" t="str">
+      <c r="AE22" s="22" t="str">
         <f ca="1">VLOOKUP(AD22,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AG22" s="24" t="str">
+      <c r="AG22" s="22" t="str">
         <f ca="1"/>
         <v>Perola d'Oeste</v>
       </c>
-      <c r="AH22" s="24" t="str">
+      <c r="AH22" s="22" t="str">
         <f ca="1">VLOOKUP(AG22,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ22" s="24" t="str">
+      <c r="AJ22" s="22" t="str">
         <f ca="1"/>
         <v>Perola d'Oeste</v>
       </c>
-      <c r="AK22" s="24" t="str">
+      <c r="AK22" s="22" t="str">
         <f ca="1">VLOOKUP(AJ22,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="AD23" s="24" t="str">
+      <c r="AD23" s="22" t="str">
         <f ca="1"/>
         <v>Planaltina do Paraná</v>
       </c>
-      <c r="AE23" s="24" t="str">
+      <c r="AE23" s="22" t="str">
         <f ca="1">VLOOKUP(AD23,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG23" s="24" t="str">
+      <c r="AG23" s="22" t="str">
         <f ca="1"/>
         <v>Planaltina do Paraná</v>
       </c>
-      <c r="AH23" s="24" t="str">
+      <c r="AH23" s="22" t="str">
         <f ca="1">VLOOKUP(AG23,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ23" s="24" t="str">
+      <c r="AJ23" s="22" t="str">
         <f ca="1"/>
         <v>Planaltina do Paraná</v>
       </c>
-      <c r="AK23" s="24" t="str">
+      <c r="AK23" s="22" t="str">
         <f ca="1">VLOOKUP(AJ23,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="AD24" s="24" t="str">
+      <c r="AD24" s="22" t="str">
         <f ca="1"/>
         <v>Planalto</v>
       </c>
-      <c r="AE24" s="24" t="str">
+      <c r="AE24" s="22" t="str">
         <f ca="1">VLOOKUP(AD24,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AG24" s="24" t="str">
+      <c r="AG24" s="22" t="str">
         <f ca="1"/>
         <v>Planalto</v>
       </c>
-      <c r="AH24" s="24" t="str">
+      <c r="AH24" s="22" t="str">
         <f ca="1">VLOOKUP(AG24,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ24" s="24" t="str">
+      <c r="AJ24" s="22" t="str">
         <f ca="1"/>
         <v>Planalto</v>
       </c>
-      <c r="AK24" s="24" t="str">
+      <c r="AK24" s="22" t="str">
         <f ca="1">VLOOKUP(AJ24,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="AD25" s="24" t="str">
+      <c r="AD25" s="22" t="str">
         <f ca="1"/>
         <v>Porto Rico</v>
       </c>
-      <c r="AE25" s="24" t="str">
+      <c r="AE25" s="22" t="str">
         <f ca="1">VLOOKUP(AD25,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG25" s="24" t="str">
+      <c r="AG25" s="22" t="str">
         <f ca="1"/>
         <v>Porto Rico</v>
       </c>
-      <c r="AH25" s="24" t="str">
+      <c r="AH25" s="22" t="str">
         <f ca="1">VLOOKUP(AG25,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ25" s="24" t="str">
+      <c r="AJ25" s="22" t="str">
         <f ca="1"/>
         <v>Porto Rico</v>
       </c>
-      <c r="AK25" s="24" t="str">
+      <c r="AK25" s="22" t="str">
         <f ca="1">VLOOKUP(AJ25,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="AD26" s="24" t="str">
+      <c r="AD26" s="22" t="str">
         <f ca="1"/>
         <v>Querencia do Norte</v>
       </c>
-      <c r="AE26" s="24" t="str">
+      <c r="AE26" s="22" t="str">
         <f ca="1">VLOOKUP(AD26,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG26" s="24" t="str">
+      <c r="AG26" s="22" t="str">
         <f ca="1"/>
         <v>Querencia do Norte</v>
       </c>
-      <c r="AH26" s="24" t="str">
+      <c r="AH26" s="22" t="str">
         <f ca="1">VLOOKUP(AG26,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ26" s="24" t="str">
+      <c r="AJ26" s="22" t="str">
         <f ca="1"/>
         <v>Querencia do Norte</v>
       </c>
-      <c r="AK26" s="24" t="str">
+      <c r="AK26" s="22" t="str">
         <f ca="1">VLOOKUP(AJ26,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="AD27" s="24" t="str">
+      <c r="AD27" s="22" t="str">
         <f ca="1"/>
         <v>Santa Cruz de Monte Castelo</v>
       </c>
-      <c r="AE27" s="24" t="str">
+      <c r="AE27" s="22" t="str">
         <f ca="1">VLOOKUP(AD27,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG27" s="24" t="str">
+      <c r="AG27" s="22" t="str">
         <f ca="1"/>
         <v>Santa Cruz de Monte Castelo</v>
       </c>
-      <c r="AH27" s="24" t="str">
+      <c r="AH27" s="22" t="str">
         <f ca="1">VLOOKUP(AG27,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ27" s="24" t="str">
+      <c r="AJ27" s="22" t="str">
         <f ca="1"/>
         <v>Santa Cruz de Monte Castelo</v>
       </c>
-      <c r="AK27" s="24" t="str">
+      <c r="AK27" s="22" t="str">
         <f ca="1">VLOOKUP(AJ27,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="AD28" s="24" t="str">
+      <c r="AD28" s="22" t="str">
         <f ca="1"/>
         <v>Santa Isabel do Ivai</v>
       </c>
-      <c r="AE28" s="24" t="str">
+      <c r="AE28" s="22" t="str">
         <f ca="1">VLOOKUP(AD28,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG28" s="24" t="str">
+      <c r="AG28" s="22" t="str">
         <f ca="1"/>
         <v>Santa Isabel do Ivai</v>
       </c>
-      <c r="AH28" s="24" t="str">
+      <c r="AH28" s="22" t="str">
         <f ca="1">VLOOKUP(AG28,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ28" s="24" t="str">
+      <c r="AJ28" s="22" t="str">
         <f ca="1"/>
         <v>Santa Isabel do Ivai</v>
       </c>
-      <c r="AK28" s="24" t="str">
+      <c r="AK28" s="22" t="str">
         <f ca="1">VLOOKUP(AJ28,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="AD29" s="24" t="str">
+      <c r="AD29" s="22" t="str">
         <f ca="1"/>
         <v>Santo Antonio do Sudoeste</v>
       </c>
-      <c r="AE29" s="24" t="str">
+      <c r="AE29" s="22" t="str">
         <f ca="1">VLOOKUP(AD29,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AG29" s="24" t="str">
+      <c r="AG29" s="22" t="str">
         <f ca="1"/>
         <v>Santo Antonio do Sudoeste</v>
       </c>
-      <c r="AH29" s="24" t="str">
+      <c r="AH29" s="22" t="str">
         <f ca="1">VLOOKUP(AG29,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ29" s="24" t="str">
+      <c r="AJ29" s="22" t="str">
         <f ca="1"/>
         <v>Santo Antonio do Sudoeste</v>
       </c>
-      <c r="AK29" s="24" t="str">
+      <c r="AK29" s="22" t="str">
         <f ca="1">VLOOKUP(AJ29,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="AD30" s="24" t="str">
+      <c r="AD30" s="22" t="str">
         <f ca="1"/>
         <v>São Jorge do Patrocinio</v>
       </c>
-      <c r="AE30" s="24" t="str">
+      <c r="AE30" s="22" t="str">
         <f ca="1">VLOOKUP(AD30,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG30" s="24" t="str">
+      <c r="AG30" s="22" t="str">
         <f ca="1"/>
         <v>São Jorge do Patrocinio</v>
       </c>
-      <c r="AH30" s="24" t="str">
+      <c r="AH30" s="22" t="str">
         <f ca="1">VLOOKUP(AG30,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ30" s="24" t="str">
+      <c r="AJ30" s="22" t="str">
         <f ca="1"/>
         <v>São Jorge do Patrocinio</v>
       </c>
-      <c r="AK30" s="24" t="str">
+      <c r="AK30" s="22" t="str">
         <f ca="1">VLOOKUP(AJ30,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="AD31" s="24" t="str">
+      <c r="AD31" s="22" t="str">
         <f ca="1"/>
         <v>São Pedro do Paraná</v>
       </c>
-      <c r="AE31" s="24" t="str">
+      <c r="AE31" s="22" t="str">
         <f ca="1">VLOOKUP(AD31,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG31" s="24" t="str">
+      <c r="AG31" s="22" t="str">
         <f ca="1"/>
         <v>São Pedro do Paraná</v>
       </c>
-      <c r="AH31" s="24" t="str">
+      <c r="AH31" s="22" t="str">
         <f ca="1">VLOOKUP(AG31,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ31" s="24" t="str">
+      <c r="AJ31" s="22" t="str">
         <f ca="1"/>
         <v>São Pedro do Paraná</v>
       </c>
-      <c r="AK31" s="24" t="str">
+      <c r="AK31" s="22" t="str">
         <f ca="1">VLOOKUP(AJ31,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="AD32" s="24" t="str">
+      <c r="AD32" s="22" t="str">
         <f ca="1"/>
         <v>Tapira</v>
       </c>
-      <c r="AE32" s="24" t="str">
+      <c r="AE32" s="22" t="str">
         <f ca="1">VLOOKUP(AD32,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG32" s="24" t="str">
+      <c r="AG32" s="22" t="str">
         <f ca="1"/>
         <v>Tapira</v>
       </c>
-      <c r="AH32" s="24" t="str">
+      <c r="AH32" s="22" t="str">
         <f ca="1">VLOOKUP(AG32,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ32" s="24" t="str">
+      <c r="AJ32" s="22" t="str">
         <f ca="1"/>
         <v>Tapira</v>
       </c>
-      <c r="AK32" s="24" t="str">
+      <c r="AK32" s="22" t="str">
         <f ca="1">VLOOKUP(AJ32,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="33" spans="30:37">
-      <c r="AD33" s="24" t="str">
+      <c r="AD33" s="22" t="str">
         <f ca="1"/>
         <v>Umuarama</v>
       </c>
-      <c r="AE33" s="24" t="str">
+      <c r="AE33" s="22" t="str">
         <f ca="1">VLOOKUP(AD33,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG33" s="24" t="str">
+      <c r="AG33" s="22" t="str">
         <f ca="1"/>
         <v>Umuarama</v>
       </c>
-      <c r="AH33" s="24" t="str">
+      <c r="AH33" s="22" t="str">
         <f ca="1">VLOOKUP(AG33,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ33" s="24" t="str">
+      <c r="AJ33" s="22" t="str">
         <f ca="1"/>
         <v>Umuarama</v>
       </c>
-      <c r="AK33" s="24" t="str">
+      <c r="AK33" s="22" t="str">
         <f ca="1">VLOOKUP(AJ33,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="34" spans="30:37">
-      <c r="AD34" s="24" t="str">
+      <c r="AD34" s="22" t="str">
         <f ca="1"/>
         <v>Xambre</v>
       </c>
-      <c r="AE34" s="24" t="str">
+      <c r="AE34" s="22" t="str">
         <f ca="1">VLOOKUP(AD34,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG34" s="24" t="str">
+      <c r="AG34" s="22" t="str">
         <f ca="1"/>
         <v>Xambre</v>
       </c>
-      <c r="AH34" s="24" t="str">
+      <c r="AH34" s="22" t="str">
         <f ca="1">VLOOKUP(AG34,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ34" s="24" t="str">
+      <c r="AJ34" s="22" t="str">
         <f ca="1"/>
         <v>Xambre</v>
       </c>
-      <c r="AK34" s="24" t="str">
+      <c r="AK34" s="22" t="str">
         <f ca="1">VLOOKUP(AJ34,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="35" spans="30:37">
-      <c r="AD35" s="24" t="str">
+      <c r="AD35" s="22" t="str">
         <f ca="1"/>
         <v>Amambai</v>
       </c>
-      <c r="AE35" s="24" t="str">
+      <c r="AE35" s="22" t="str">
         <f ca="1">VLOOKUP(AD35,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG35" s="24" t="str">
+      <c r="AG35" s="22" t="str">
         <f ca="1"/>
         <v>Amambai</v>
       </c>
-      <c r="AH35" s="24" t="str">
+      <c r="AH35" s="22" t="str">
         <f ca="1">VLOOKUP(AG35,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ35" s="24" t="str">
+      <c r="AJ35" s="22" t="str">
         <f ca="1"/>
         <v>Amambai</v>
       </c>
-      <c r="AK35" s="24" t="str">
+      <c r="AK35" s="22" t="str">
         <f ca="1">VLOOKUP(AJ35,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="36" spans="30:37">
-      <c r="AD36" s="24" t="str">
+      <c r="AD36" s="22" t="str">
         <f ca="1"/>
         <v>Aral Moreira</v>
       </c>
-      <c r="AE36" s="24" t="str">
+      <c r="AE36" s="22" t="str">
         <f ca="1">VLOOKUP(AD36,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG36" s="24" t="str">
+      <c r="AG36" s="22" t="str">
         <f ca="1"/>
         <v>Aral Moreira</v>
       </c>
-      <c r="AH36" s="24" t="str">
+      <c r="AH36" s="22" t="str">
         <f ca="1">VLOOKUP(AG36,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ36" s="24" t="str">
+      <c r="AJ36" s="22" t="str">
         <f ca="1"/>
         <v>Aral Moreira</v>
       </c>
-      <c r="AK36" s="24" t="str">
+      <c r="AK36" s="22" t="str">
         <f ca="1">VLOOKUP(AJ36,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="37" spans="30:37">
-      <c r="AD37" s="24" t="str">
+      <c r="AD37" s="22" t="str">
         <f ca="1"/>
         <v>Caarapó</v>
       </c>
-      <c r="AE37" s="24" t="str">
+      <c r="AE37" s="22" t="str">
         <f ca="1">VLOOKUP(AD37,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG37" s="24" t="str">
+      <c r="AG37" s="22" t="str">
         <f ca="1"/>
         <v>Caarapó</v>
       </c>
-      <c r="AH37" s="24" t="str">
+      <c r="AH37" s="22" t="str">
         <f ca="1">VLOOKUP(AG37,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ37" s="24" t="str">
+      <c r="AJ37" s="22" t="str">
         <f ca="1"/>
         <v>Caarapó</v>
       </c>
-      <c r="AK37" s="24" t="str">
+      <c r="AK37" s="22" t="str">
         <f ca="1">VLOOKUP(AJ37,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="38" spans="30:37">
-      <c r="AD38" s="24" t="str">
+      <c r="AD38" s="22" t="str">
         <f ca="1"/>
         <v>Coronel Sapucaia</v>
       </c>
-      <c r="AE38" s="24" t="str">
+      <c r="AE38" s="22" t="str">
         <f ca="1">VLOOKUP(AD38,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AG38" s="24" t="str">
+      <c r="AG38" s="22" t="str">
         <f ca="1"/>
         <v>Coronel Sapucaia</v>
       </c>
-      <c r="AH38" s="24" t="str">
+      <c r="AH38" s="22" t="str">
         <f ca="1">VLOOKUP(AG38,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ38" s="24" t="str">
+      <c r="AJ38" s="22" t="str">
         <f ca="1"/>
         <v>Coronel Sapucaia</v>
       </c>
-      <c r="AK38" s="24" t="str">
+      <c r="AK38" s="22" t="str">
         <f ca="1">VLOOKUP(AJ38,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="39" spans="30:37">
-      <c r="AD39" s="24" t="str">
+      <c r="AD39" s="22" t="str">
         <f ca="1"/>
         <v>Eldorado</v>
       </c>
-      <c r="AE39" s="24" t="str">
+      <c r="AE39" s="22" t="str">
         <f ca="1">VLOOKUP(AD39,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG39" s="24" t="str">
+      <c r="AG39" s="22" t="str">
         <f ca="1"/>
         <v>Eldorado</v>
       </c>
-      <c r="AH39" s="24" t="str">
+      <c r="AH39" s="22" t="str">
         <f ca="1">VLOOKUP(AG39,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ39" s="24" t="str">
+      <c r="AJ39" s="22" t="str">
         <f ca="1"/>
         <v>Eldorado</v>
       </c>
-      <c r="AK39" s="24" t="str">
+      <c r="AK39" s="22" t="str">
         <f ca="1">VLOOKUP(AJ39,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="40" spans="30:37">
-      <c r="AD40" s="24" t="str">
+      <c r="AD40" s="22" t="str">
         <f ca="1"/>
         <v>Iguatemi</v>
       </c>
-      <c r="AE40" s="24" t="str">
+      <c r="AE40" s="22" t="str">
         <f ca="1">VLOOKUP(AD40,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG40" s="24" t="str">
+      <c r="AG40" s="22" t="str">
         <f ca="1"/>
         <v>Iguatemi</v>
       </c>
-      <c r="AH40" s="24" t="str">
+      <c r="AH40" s="22" t="str">
         <f ca="1">VLOOKUP(AG40,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ40" s="24" t="str">
+      <c r="AJ40" s="22" t="str">
         <f ca="1"/>
         <v>Iguatemi</v>
       </c>
-      <c r="AK40" s="24" t="str">
+      <c r="AK40" s="22" t="str">
         <f ca="1">VLOOKUP(AJ40,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="41" spans="30:37">
-      <c r="AD41" s="24" t="str">
+      <c r="AD41" s="22" t="str">
         <f ca="1"/>
         <v>Itaquiraí</v>
       </c>
-      <c r="AE41" s="24" t="str">
+      <c r="AE41" s="22" t="str">
         <f ca="1">VLOOKUP(AD41,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG41" s="24" t="str">
+      <c r="AG41" s="22" t="str">
         <f ca="1"/>
         <v>Itaquiraí</v>
       </c>
-      <c r="AH41" s="24" t="str">
+      <c r="AH41" s="22" t="str">
         <f ca="1">VLOOKUP(AG41,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ41" s="24" t="str">
+      <c r="AJ41" s="22" t="str">
         <f ca="1"/>
         <v>Itaquiraí</v>
       </c>
-      <c r="AK41" s="24" t="str">
+      <c r="AK41" s="22" t="str">
         <f ca="1">VLOOKUP(AJ41,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="42" spans="30:37">
-      <c r="AD42" s="24" t="str">
+      <c r="AD42" s="22" t="str">
         <f ca="1"/>
         <v>Japorã</v>
       </c>
-      <c r="AE42" s="24" t="str">
+      <c r="AE42" s="22" t="str">
         <f ca="1">VLOOKUP(AD42,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG42" s="24" t="str">
+      <c r="AG42" s="22" t="str">
         <f ca="1"/>
         <v>Japorã</v>
       </c>
-      <c r="AH42" s="24" t="str">
+      <c r="AH42" s="22" t="str">
         <f ca="1">VLOOKUP(AG42,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="AJ42" s="24" t="str">
+      <c r="AJ42" s="22" t="str">
         <f ca="1"/>
         <v>Japorã</v>
       </c>
-      <c r="AK42" s="24" t="str">
+      <c r="AK42" s="22" t="str">
         <f ca="1">VLOOKUP(AJ42,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="43" spans="30:37">
-      <c r="AD43" s="24" t="str">
+      <c r="AD43" s="22" t="str">
         <f ca="1"/>
         <v>Juti</v>
       </c>
-      <c r="AE43" s="24" t="str">
+      <c r="AE43" s="22" t="str">
         <f ca="1">VLOOKUP(AD43,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG43" s="24" t="str">
+      <c r="AG43" s="22" t="str">
         <f ca="1"/>
         <v>Juti</v>
       </c>
-      <c r="AH43" s="24" t="str">
+      <c r="AH43" s="22" t="str">
         <f ca="1">VLOOKUP(AG43,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ43" s="24" t="str">
+      <c r="AJ43" s="22" t="str">
         <f ca="1"/>
         <v>Juti</v>
       </c>
-      <c r="AK43" s="24" t="str">
+      <c r="AK43" s="22" t="str">
         <f ca="1">VLOOKUP(AJ43,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="44" spans="30:37">
-      <c r="AD44" s="24" t="str">
+      <c r="AD44" s="22" t="str">
         <f ca="1"/>
         <v>Naviraí</v>
       </c>
-      <c r="AE44" s="24" t="str">
+      <c r="AE44" s="22" t="str">
         <f ca="1">VLOOKUP(AD44,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG44" s="24" t="str">
+      <c r="AG44" s="22" t="str">
         <f ca="1"/>
         <v>Naviraí</v>
       </c>
-      <c r="AH44" s="24" t="str">
+      <c r="AH44" s="22" t="str">
         <f ca="1">VLOOKUP(AG44,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ44" s="24" t="str">
+      <c r="AJ44" s="22" t="str">
         <f ca="1"/>
         <v>Naviraí</v>
       </c>
-      <c r="AK44" s="24" t="str">
+      <c r="AK44" s="22" t="str">
         <f ca="1">VLOOKUP(AJ44,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="45" spans="30:37">
-      <c r="AD45" s="24" t="str">
+      <c r="AD45" s="22" t="str">
         <f ca="1"/>
         <v>Paranhos</v>
       </c>
-      <c r="AE45" s="24" t="str">
+      <c r="AE45" s="22" t="str">
         <f ca="1">VLOOKUP(AD45,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG45" s="24" t="str">
+      <c r="AG45" s="22" t="str">
         <f ca="1"/>
         <v>Paranhos</v>
       </c>
-      <c r="AH45" s="24" t="str">
+      <c r="AH45" s="22" t="str">
         <f ca="1">VLOOKUP(AG45,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ45" s="24" t="str">
+      <c r="AJ45" s="22" t="str">
         <f ca="1"/>
         <v>Paranhos</v>
       </c>
-      <c r="AK45" s="24" t="str">
+      <c r="AK45" s="22" t="str">
         <f ca="1">VLOOKUP(AJ45,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="46" spans="30:37">
-      <c r="AD46" s="24" t="str">
+      <c r="AD46" s="22" t="str">
         <f ca="1"/>
         <v>Sete Quedas</v>
       </c>
-      <c r="AE46" s="24" t="str">
+      <c r="AE46" s="22" t="str">
         <f ca="1">VLOOKUP(AD46,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AG46" s="24" t="str">
+      <c r="AG46" s="22" t="str">
         <f ca="1"/>
         <v>Sete Quedas</v>
       </c>
-      <c r="AH46" s="24" t="str">
+      <c r="AH46" s="22" t="str">
         <f ca="1">VLOOKUP(AG46,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ46" s="24" t="str">
+      <c r="AJ46" s="22" t="str">
         <f ca="1"/>
         <v>Sete Quedas</v>
       </c>
-      <c r="AK46" s="24" t="str">
+      <c r="AK46" s="22" t="str">
         <f ca="1">VLOOKUP(AJ46,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
     </row>
     <row r="47" spans="30:37">
-      <c r="AD47" s="24" t="str">
+      <c r="AD47" s="22" t="str">
         <f ca="1"/>
         <v>Tacuru</v>
       </c>
-      <c r="AE47" s="24" t="str">
+      <c r="AE47" s="22" t="str">
         <f ca="1">VLOOKUP(AD47,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG47" s="24" t="str">
+      <c r="AG47" s="22" t="str">
         <f ca="1"/>
         <v>Tacuru</v>
       </c>
-      <c r="AH47" s="24" t="str">
+      <c r="AH47" s="22" t="str">
         <f ca="1">VLOOKUP(AG47,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ47" s="24" t="str">
+      <c r="AJ47" s="22" t="str">
         <f ca="1"/>
         <v>Tacuru</v>
       </c>
-      <c r="AK47" s="24" t="str">
+      <c r="AK47" s="22" t="str">
         <f ca="1">VLOOKUP(AJ47,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -4187,7 +4187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4220,24 +4222,24 @@
       <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="str">
@@ -4262,30 +4264,30 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="str">
@@ -4354,24 +4356,24 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="str">
@@ -4440,24 +4442,24 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="str">
@@ -4526,24 +4528,24 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="37" t="s">
+      <c r="G5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="str">
@@ -4612,24 +4614,24 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="str">
@@ -4698,24 +4700,24 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="37" t="s">
+      <c r="G7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="str">
@@ -4784,24 +4786,24 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="str">
@@ -4870,13 +4872,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4899,21 +4901,21 @@
       <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="12">
@@ -4985,21 +4987,21 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="12">
@@ -5071,21 +5073,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="12">
@@ -5157,21 +5159,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="37" t="s">
+      <c r="H14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="12">
@@ -5243,21 +5245,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="12">
@@ -5329,21 +5331,21 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="12">
@@ -5415,21 +5417,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="12">
@@ -5501,21 +5503,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="37" t="s">
+      <c r="H18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="12">
@@ -5587,21 +5589,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="12">
@@ -5673,21 +5675,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="37" t="s">
+      <c r="G20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12">
@@ -5759,21 +5761,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="12">
@@ -5845,13 +5847,13 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="32" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5874,21 +5876,21 @@
       <c r="F24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="12">
@@ -5960,21 +5962,21 @@
 )</f>
         <v>Duplicado</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="37" t="s">
+      <c r="G25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="12">
@@ -6046,21 +6048,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="37" t="s">
+      <c r="G26" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="12">
@@ -6132,21 +6134,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="37" t="s">
+      <c r="G27" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="12">
@@ -6218,21 +6220,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="37" t="s">
+      <c r="G28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="12">
@@ -6304,21 +6306,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="37" t="s">
+      <c r="G29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="12">
@@ -6390,21 +6392,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="12">
@@ -6432,7 +6434,7 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="E31" s="37" t="str">
+      <c r="E31" s="32" t="str">
         <f t="array" aca="1" ref="E31" ca="1">IF(
     VLOOKUP(
         $A31,
@@ -6454,7 +6456,7 @@
 )</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="F31" s="37" t="str">
+      <c r="F31" s="32" t="str">
         <f t="array" aca="1" ref="F31" ca="1">IF(
     VLOOKUP(
         $A31,
@@ -6476,21 +6478,21 @@
 )</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="12">
@@ -6562,21 +6564,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="37" t="s">
+      <c r="G32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="12">
@@ -6648,21 +6650,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="37" t="s">
+      <c r="G33" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="12">
@@ -6734,13 +6736,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="37" t="s">
+      <c r="G34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6763,21 +6765,21 @@
       <c r="F36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="12">
@@ -6849,21 +6851,21 @@
 )</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="12">
@@ -6935,21 +6937,21 @@
 )</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="12">
@@ -7021,21 +7023,21 @@
 )</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="12">
@@ -7107,13 +7109,13 @@
 )</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7136,21 +7138,21 @@
       <c r="F42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="12">
@@ -7222,21 +7224,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="37" t="s">
+      <c r="G43" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="12">
@@ -7308,21 +7310,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="12">
@@ -7394,21 +7396,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="G45" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="12">
@@ -7480,21 +7482,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="12">
@@ -7566,21 +7568,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G47" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="37" t="s">
+      <c r="G47" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="12">
@@ -7652,21 +7654,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I48" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="12">
@@ -7738,21 +7740,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G49" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="37" t="s">
+      <c r="G49" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="12">
@@ -7780,7 +7782,7 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="32" t="s">
         <v>29</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -7805,21 +7807,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="I50" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="12">
@@ -7891,21 +7893,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G51" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="37" t="s">
+      <c r="G51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="12">
@@ -7977,21 +7979,21 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" s="37" t="s">
+      <c r="H52" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="12">
@@ -8063,21 +8065,21 @@
 )</f>
         <v>Atrasado</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="37" t="s">
+      <c r="I53" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="12">
@@ -8149,21 +8151,21 @@
 )</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C55" s="12">
@@ -8235,13 +8237,13 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="37" t="s">
+      <c r="G55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8603,7 +8605,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -8632,7 +8634,7 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -8661,7 +8663,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -8686,7 +8688,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -8715,7 +8717,7 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -8744,7 +8746,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -8773,7 +8775,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -8802,7 +8804,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -8831,7 +8833,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -8860,7 +8862,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -8889,7 +8891,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -8918,7 +8920,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -8945,7 +8947,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -8974,7 +8976,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -9003,7 +9005,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -9032,7 +9034,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -9065,7 +9067,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -9094,7 +9096,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -9123,7 +9125,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -9152,7 +9154,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -9181,7 +9183,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -9206,7 +9208,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -9233,7 +9235,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -9258,7 +9260,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -9287,7 +9289,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -9314,7 +9316,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -9343,7 +9345,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -9372,7 +9374,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -9397,7 +9399,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -9426,7 +9428,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -9453,7 +9455,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -9482,7 +9484,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -9511,7 +9513,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -9540,7 +9542,7 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -9569,7 +9571,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -9596,7 +9598,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -9625,7 +9627,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -9652,7 +9654,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -9681,7 +9683,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -9710,7 +9712,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -9739,7 +9741,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -9768,7 +9770,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -9797,7 +9799,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -9826,7 +9828,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -9855,7 +9857,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -9880,7 +9882,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -10021,7 +10023,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -10051,7 +10053,7 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -10081,7 +10083,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -10109,7 +10111,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -10139,7 +10141,7 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -10169,7 +10171,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -10199,7 +10201,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -10229,7 +10231,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -10257,7 +10259,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -10285,7 +10287,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -10315,7 +10317,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -10345,7 +10347,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -10373,7 +10375,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -10403,7 +10405,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -10433,7 +10435,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -10461,7 +10463,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -10491,7 +10493,7 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -10521,7 +10523,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -10551,7 +10553,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -10581,7 +10583,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -10611,7 +10613,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -10639,7 +10641,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -10667,7 +10669,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -10695,7 +10697,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -10723,7 +10725,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -10751,7 +10753,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -10781,7 +10783,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -10811,7 +10813,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -10839,7 +10841,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -10867,7 +10869,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -10895,7 +10897,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -10925,7 +10927,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -10955,7 +10957,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -10985,7 +10987,7 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -11015,7 +11017,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -11043,7 +11045,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -11073,7 +11075,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -11101,7 +11103,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -11131,7 +11133,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -11159,7 +11161,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -11189,7 +11191,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -11219,7 +11221,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -11249,7 +11251,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -11279,7 +11281,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -11309,7 +11311,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -11337,7 +11339,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -11479,7 +11481,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -11509,7 +11511,7 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11539,7 +11541,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -11567,7 +11569,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -11586,7 +11588,7 @@
       <c r="F5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="42" t="s">
         <v>113</v>
       </c>
       <c r="H5" s="12"/>
@@ -11601,7 +11603,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -11631,7 +11633,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -11661,7 +11663,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -11691,7 +11693,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -11719,7 +11721,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -11749,7 +11751,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -11779,7 +11781,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11798,7 +11800,7 @@
       <c r="F12" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="42" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="12"/>
@@ -11813,7 +11815,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -11841,7 +11843,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -11871,7 +11873,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11901,7 +11903,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -11929,7 +11931,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -11959,7 +11961,7 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -11989,7 +11991,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -12019,7 +12021,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -12049,7 +12051,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -12079,7 +12081,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -12107,7 +12109,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -12135,7 +12137,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -12163,7 +12165,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -12193,7 +12195,7 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -12221,7 +12223,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -12251,7 +12253,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -12281,7 +12283,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -12309,7 +12311,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -12337,7 +12339,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -12365,7 +12367,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -12395,7 +12397,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -12425,7 +12427,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -12455,7 +12457,7 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -12485,7 +12487,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -12513,7 +12515,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12543,7 +12545,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -12571,7 +12573,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -12601,7 +12603,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -12629,7 +12631,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -12659,7 +12661,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12689,7 +12691,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -12719,7 +12721,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -12749,7 +12751,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -12777,7 +12779,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -12805,7 +12807,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="12" t="s">
